--- a/medicine/Pharmacie/Hélicidine/Hélicidine.xlsx
+++ b/medicine/Pharmacie/Hélicidine/Hélicidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9licidine</t>
+          <t>Hélicidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hélicidine est une mucoglycoprotéine et un mucolytique préparée à partir d'une molécule extraite du mucus d'Helix pomatia[1],[2], commercialisée par Therabel Lucien Pharma[3].
-Ce produit est un héritier de longues traditions d'hélicithérapie (usage thérapeutique de la bave d'escargot ou de limace) trouvant leurs origines dès l'Antiquité[4].
-L'Hélicidine a des effets antitussifs[5],[6]. Elle est commercialisée comme sirop contre la toux en France depuis 1957[4], à partir des travaux d'André Quevauviller[4] en 1953[7],[8],[9].
-Le service médical rendu dans le cadre de l'autorisation de mise sur le marché est considéré comme faible par la Haute Autorité de santé[10].
-Ce médicament est contre-indiqué chez l'enfant de moins de 2 ans[11].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hélicidine est une mucoglycoprotéine et un mucolytique préparée à partir d'une molécule extraite du mucus d'Helix pomatia commercialisée par Therabel Lucien Pharma.
+Ce produit est un héritier de longues traditions d'hélicithérapie (usage thérapeutique de la bave d'escargot ou de limace) trouvant leurs origines dès l'Antiquité.
+L'Hélicidine a des effets antitussifs,. Elle est commercialisée comme sirop contre la toux en France depuis 1957, à partir des travaux d'André Quevauviller en 1953.
+Le service médical rendu dans le cadre de l'autorisation de mise sur le marché est considéré comme faible par la Haute Autorité de santé.
+Ce médicament est contre-indiqué chez l'enfant de moins de 2 ans.
 </t>
         </is>
       </c>
